--- a/biology/Biologie cellulaire et moléculaire/Auto-inducteur_2/Auto-inducteur_2.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Auto-inducteur_2/Auto-inducteur_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'auto-inducteur 2, ou AI-2, est une molécule de signalisation cellulaire intervenant dans la détection du quorum[2]. C'est l'une des très rares biomolécules contenant du bore. L'AI-2 a été identifié pour la première fois chez la bactérie marine Vibrio harveyi (en) et est produite et reconnue par de nombreuses bactéries à Gram négatif et à Gram positif[3],[4]. Il se forme par réaction d'acide borique avec du 1-désoxy-3-déshydro-D-ribulose, dérivant lui-même de la 4,5-dihydroxy-2,3-pentanedione (en), dérivant lui-même de la S-adénosylhomocystéine sous l'action d'une S-ribosylhomocystéine lyase (en)[5].
-AI-2 est absorbé par transport actif sur un transporteur ABC chez les Enterobacteriaceae et quelques autres taxons bactériens (Pasteurella, Photorhabdus, Haemophilus, Bacillus)[6] puis est phosphorylé à l'intérieur des cellules par une auto-inducteur 2 kinase notée lsrK. Le phospho-AI-2 se lie ensuite à un répresseur de transcription, la protéine lsrR, qui s'en trouve libéré du promoteur/opérateur de l'opéron lsr, permettant la transcription des gènes de cet opéron. La signalisation par l'auto-inducteur 2 est également régulée par le glucose et l'AMPc/CRP à travers l'opéron lsr. En présence de glucose, un faible taux d'AMPc/CRP conduit à pratiquement aucune expression de l'opéron lsr (protéines lsrABCDFG). En l'absence de glucose, AMPc-CRP est nécessaire pour stimuler l'expression de lsr tandis que la protéine lsrR réprime cette expression en l'absence de phospho-AI-2. L'accumulation de ce dernier permet l'absorption d'un surcroît d'AI-2 par le complexe lsrABCD, AI-2 qui est ensuite posphorylé par lsrK et peut enfin lever la répression de l'opéron lsr, ce qui accroît encore davantage l'absorption d'AI-2[7].
-Le fait que l'AI-2 soit un signal universel est discuté. Bien que le gène luxS de la S-ribosylhomocystéine lyase (en), enzyme clé de la formation d'AI-2, soit un gène largement répandu, l'AI-2 est avant tout un sous-produit du recyclage de la S-adénosyl-L-méthionine[8]. L'utilisation certaine de l'AI-2 comme molécule de signalisation est en réalité limitée aux microorganismes dont on connaît des gènes de récepteurs d'AI-2[9]. Par conséquent, bien que certaines bactéries répondent à l'auto-inducteur 2, il n'est pas certain que cette molécule soit toujours produite à des fins de signalisation.
+L'auto-inducteur 2, ou AI-2, est une molécule de signalisation cellulaire intervenant dans la détection du quorum. C'est l'une des très rares biomolécules contenant du bore. L'AI-2 a été identifié pour la première fois chez la bactérie marine Vibrio harveyi (en) et est produite et reconnue par de nombreuses bactéries à Gram négatif et à Gram positif,. Il se forme par réaction d'acide borique avec du 1-désoxy-3-déshydro-D-ribulose, dérivant lui-même de la 4,5-dihydroxy-2,3-pentanedione (en), dérivant lui-même de la S-adénosylhomocystéine sous l'action d'une S-ribosylhomocystéine lyase (en).
+AI-2 est absorbé par transport actif sur un transporteur ABC chez les Enterobacteriaceae et quelques autres taxons bactériens (Pasteurella, Photorhabdus, Haemophilus, Bacillus) puis est phosphorylé à l'intérieur des cellules par une auto-inducteur 2 kinase notée lsrK. Le phospho-AI-2 se lie ensuite à un répresseur de transcription, la protéine lsrR, qui s'en trouve libéré du promoteur/opérateur de l'opéron lsr, permettant la transcription des gènes de cet opéron. La signalisation par l'auto-inducteur 2 est également régulée par le glucose et l'AMPc/CRP à travers l'opéron lsr. En présence de glucose, un faible taux d'AMPc/CRP conduit à pratiquement aucune expression de l'opéron lsr (protéines lsrABCDFG). En l'absence de glucose, AMPc-CRP est nécessaire pour stimuler l'expression de lsr tandis que la protéine lsrR réprime cette expression en l'absence de phospho-AI-2. L'accumulation de ce dernier permet l'absorption d'un surcroît d'AI-2 par le complexe lsrABCD, AI-2 qui est ensuite posphorylé par lsrK et peut enfin lever la répression de l'opéron lsr, ce qui accroît encore davantage l'absorption d'AI-2.
+Le fait que l'AI-2 soit un signal universel est discuté. Bien que le gène luxS de la S-ribosylhomocystéine lyase (en), enzyme clé de la formation d'AI-2, soit un gène largement répandu, l'AI-2 est avant tout un sous-produit du recyclage de la S-adénosyl-L-méthionine. L'utilisation certaine de l'AI-2 comme molécule de signalisation est en réalité limitée aux microorganismes dont on connaît des gènes de récepteurs d'AI-2. Par conséquent, bien que certaines bactéries répondent à l'auto-inducteur 2, il n'est pas certain que cette molécule soit toujours produite à des fins de signalisation.
 </t>
         </is>
       </c>
